--- a/results/Tablas econometricas.xlsx
+++ b/results/Tablas econometricas.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estca\OneDrive\Documentos\Github\intelectual-capital-banks\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49CDFE8B-B1F4-40AE-8DD8-5AD2A74EF1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DABFF5E-7586-43CE-AF7A-9F9742B5ED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6215A7C-66B2-464B-A83D-8C38AA887801}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Entidades financieras" sheetId="4" r:id="rId1"/>
+    <sheet name="Bancos" sheetId="1" r:id="rId2"/>
+    <sheet name="Financieras" sheetId="2" r:id="rId3"/>
+    <sheet name="Cajas" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
   <si>
     <t>Variable</t>
   </si>
@@ -82,6 +85,15 @@
   </si>
   <si>
     <t>Modelo 2</t>
+  </si>
+  <si>
+    <t>MODEL1</t>
+  </si>
+  <si>
+    <t>MODEL2</t>
+  </si>
+  <si>
+    <t>rho</t>
   </si>
 </sst>
 </file>
@@ -105,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -114,10 +126,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -126,9 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6212A6-C0D6-41E6-9E34-AB868CCCC62C}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7094D5-325A-45C7-8365-48DE0544F710}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,164 +501,840 @@
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3">
+        <v>-1E-4</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-2.8199999999999999E-2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>130</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <v>130</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.56869999999999998</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7.6E-3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <v>1.35E-2</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6212A6-C0D6-41E6-9E34-AB868CCCC62C}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
         <v>-7.0000000000000001E-3</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
         <v>4.02E-2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>-1.8200000000000001E-2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>-1.6199999999999999E-2</v>
       </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>75</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
         <v>60</v>
       </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0.77339999999999998</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
         <v>0.78779999999999994</v>
       </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>0.86870000000000003</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
         <v>0.77529999999999999</v>
       </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.65680000000000005</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
         <v>0.83260000000000001</v>
       </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5580D9C-5517-4678-99BD-BD2509955DEF}">
+  <dimension ref="A2:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="A2:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>1.41E-2</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-1.66E-2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <v>-3.5200000000000002E-2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1444</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
+        <v>4.3E-3</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.23E-2</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.43E-2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.42430000000000001</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF56C4DD-6E73-4F91-84B9-7FE4D60BB4F5}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.34E-2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-7.6E-3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <v>-1.41E-2</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <v>7.46E-2</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.71340000000000003</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <v>0.9526</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
